--- a/tests/integration/data/Renderer017-TemplateFormula/template.xlsx
+++ b/tests/integration/data/Renderer017-TemplateFormula/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siemienik/WebstormProjects/xlsx-import/packages/xlsx-renderer/tests/integration/data/Renderer017-TemplateFormula/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer017-TemplateFormula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF15782-1B73-0E4A-9CF4-8BC0D1BD7BC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99851FBA-630B-0442-AAB7-5A11A173B326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{3937DCF4-5A75-A644-90AB-281CA53899EB}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{3937DCF4-5A75-A644-90AB-281CA53899EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Correct Formula" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>#! DELETE item</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -152,8 +155,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331C091-824C-DA45-BB4F-3F2065EB9873}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,7 +490,7 @@
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +503,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -514,13 +520,16 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -532,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -547,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE34ABD-ABA2-974B-A81D-DD5C0A137BCA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +569,7 @@
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +582,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -587,13 +599,16 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -605,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>10</v>
       </c>
